--- a/策划用_配置表/stage1.xlsx
+++ b/策划用_配置表/stage1.xlsx
@@ -1,48 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\plan\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CF4A37-B95A-4443-ADF6-1802E3E6788F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2685" windowWidth="34065" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15195" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -51,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -62,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -78,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,14 +68,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -104,7 +83,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,14 +92,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -130,7 +107,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,8 +152,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,35 +168,162 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,23 +338,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,12 +537,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -269,6 +792,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,31 +804,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="32" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -589,29 +1155,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -620,462 +1186,462 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
         <v>10101</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>10102</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="5">
         <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
         <v>10102</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>10103</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="5">
         <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
         <v>10103</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>10104</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="5">
         <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
         <v>10104</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>10105</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="5">
         <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
         <v>10105</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>10106</v>
       </c>
       <c r="C6">
         <v>60</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
         <v>10106</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>10107</v>
       </c>
       <c r="C7">
         <v>90</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="5">
         <v>1.2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="5">
         <v>1.5</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
         <v>10107</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>10108</v>
       </c>
       <c r="C8">
         <v>130</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="5">
         <v>8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="5">
         <v>1.2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="5">
         <v>1.6</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
         <v>10108</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>10109</v>
       </c>
       <c r="C9">
         <v>180</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="5">
         <v>1.2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="5">
         <v>1.7</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
         <v>10109</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>10110</v>
       </c>
       <c r="C10">
         <v>220</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="5">
         <v>8</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="5">
         <v>1.2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="5">
         <v>1.8</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6">
         <v>10110</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>10111</v>
       </c>
       <c r="C11">
         <v>260</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="5">
         <v>1.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
         <v>10111</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>10112</v>
       </c>
       <c r="C12">
         <v>280</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="5">
         <v>16</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="5">
         <v>1.5</v>
       </c>
-      <c r="G12" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="H12" s="5">
+        <v>2.3</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
         <v>10112</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>10113</v>
       </c>
       <c r="C13">
         <v>300</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="5">
         <v>8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="5">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="5">
         <v>1.5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="5">
         <v>2.6</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
         <v>10113</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>10114</v>
       </c>
       <c r="C14">
         <v>320</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="5">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="5">
         <v>16</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="5">
         <v>1.5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="5">
         <v>2.9</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
         <v>10114</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>10115</v>
       </c>
       <c r="C15">
         <v>350</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="5">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="5">
         <v>16</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="5">
         <v>1.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="5">
         <v>3.2</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6">
         <v>10115</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>10116</v>
       </c>
       <c r="C16">
         <v>400</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="5">
         <v>8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="5">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="A17" s="7">
         <v>10116</v>
       </c>
       <c r="B17" s="1">
@@ -1084,462 +1650,522 @@
       <c r="C17" s="1">
         <v>500</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>20</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
         <v>10201</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>10202</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
+        <f>C16+C18</f>
+        <v>420</v>
+      </c>
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="5">
         <v>7</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
         <v>10202</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>10203</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
+        <f>D18+C19</f>
+        <v>450</v>
+      </c>
+      <c r="E19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="5">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="G19">
-        <v>1.1499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
         <v>10203</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>10204</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
+        <f t="shared" ref="D20:D32" si="0">D19+C20</f>
+        <v>490</v>
+      </c>
+      <c r="E20" s="5">
         <v>4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="5">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.3</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
         <v>10204</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>10205</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="E21" s="5">
         <v>4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="5">
         <v>7</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.45</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6">
         <v>10205</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>10206</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="E22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="5">
         <v>7</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.4</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.6</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
         <v>10206</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>10207</v>
       </c>
       <c r="C23">
         <v>120</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="E23" s="5">
         <v>8</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="5">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.5</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.75</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
         <v>10207</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>10208</v>
       </c>
       <c r="C24">
         <v>140</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="E24" s="5">
         <v>8</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="5">
         <v>16</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.6</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.9</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
         <v>10208</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>10209</v>
       </c>
       <c r="C25">
         <v>160</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="E25" s="5">
         <v>8</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="5">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.7</v>
       </c>
-      <c r="G25">
-        <v>2.0499999999999998</v>
-      </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
         <v>10209</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>10210</v>
       </c>
       <c r="C26">
         <v>180</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="E26" s="5">
         <v>8</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="5">
         <v>16</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.8</v>
       </c>
-      <c r="G26">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="H26">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6">
         <v>10210</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>10211</v>
       </c>
       <c r="C27">
         <v>300</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="E27" s="5">
         <v>8</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="5">
         <v>16</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.9</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.35</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>10</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
         <v>10211</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>10212</v>
       </c>
       <c r="C28">
         <v>320</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="E28" s="5">
         <v>15</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="5">
         <v>25</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.6</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
         <v>10212</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>10213</v>
       </c>
       <c r="C29">
         <v>340</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="E29" s="5">
         <v>15</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="5">
         <v>25</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.1</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.85</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
         <v>10213</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>10214</v>
       </c>
       <c r="C30">
         <v>360</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="E30" s="5">
         <v>15</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="5">
         <v>25</v>
       </c>
-      <c r="F30">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="G30">
+        <v>2.2</v>
+      </c>
+      <c r="H30">
         <v>3.1</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
         <v>10214</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>10215</v>
       </c>
       <c r="C31">
         <v>400</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2960</v>
+      </c>
+      <c r="E31" s="5">
         <v>15</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="5">
         <v>25</v>
       </c>
-      <c r="F31">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="G31">
+        <v>2.3</v>
+      </c>
+      <c r="H31">
         <v>3.35</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6">
         <v>10215</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>10216</v>
       </c>
       <c r="C32">
         <v>700</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>3660</v>
+      </c>
+      <c r="E32" s="5">
         <v>15</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="5">
         <v>25</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>15</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" hidden="1" spans="1:10">
+      <c r="A33" s="7">
         <v>10216</v>
       </c>
       <c r="B33" s="1">
@@ -1548,493 +2174,493 @@
       <c r="C33" s="1">
         <v>1200</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>30</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>80</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>4</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>7</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>20</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
         <v>10301</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>10302</v>
       </c>
       <c r="C34">
         <v>30</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="5">
         <v>8</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="5">
         <v>16</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
         <v>10302</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>10303</v>
       </c>
       <c r="C35">
         <v>40</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="5">
         <v>8</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="5">
         <v>16</v>
       </c>
-      <c r="F35">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="G35">
-        <v>1.1499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
         <v>10303</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>10304</v>
       </c>
       <c r="C36">
         <v>50</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="5">
         <v>8</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="5">
         <v>16</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.3</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
         <v>10304</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>10305</v>
       </c>
       <c r="C37">
         <v>60</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="5">
         <v>8</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="5">
         <v>16</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.3</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.45</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="6">
         <v>10305</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>10306</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="5">
         <v>8</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="5">
         <v>16</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.4</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1.6</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>15</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
         <v>10306</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>10307</v>
       </c>
       <c r="C39">
         <v>120</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="5">
         <v>20</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="5">
         <v>35</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.5</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1.75</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
         <v>10307</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>10308</v>
       </c>
       <c r="C40">
         <v>140</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="5">
         <v>20</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="5">
         <v>35</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1.6</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.9</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
         <v>10308</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>10309</v>
       </c>
       <c r="C41">
         <v>160</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="5">
         <v>20</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="5">
         <v>35</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1.7</v>
       </c>
-      <c r="G41">
-        <v>2.0499999999999998</v>
-      </c>
       <c r="H41">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
         <v>10309</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>10310</v>
       </c>
       <c r="C42">
         <v>180</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="5">
         <v>20</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="5">
         <v>35</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1.8</v>
       </c>
-      <c r="G42">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="H42">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="6">
         <v>10310</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>10311</v>
       </c>
       <c r="C43">
         <v>400</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="5">
         <v>20</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="5">
         <v>35</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.9</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>2.35</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>15</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
         <v>10311</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>10312</v>
       </c>
       <c r="C44">
         <v>420</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="5">
         <v>40</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="5">
         <v>70</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>2.6</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
         <v>10312</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>10313</v>
       </c>
       <c r="C45">
         <v>440</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="5">
         <v>40</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="5">
         <v>70</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>2.1</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2.85</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3">
         <v>10313</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>10314</v>
       </c>
       <c r="C46">
         <v>460</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="5">
         <v>40</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="5">
         <v>70</v>
       </c>
-      <c r="F46">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="G46">
+        <v>2.2</v>
+      </c>
+      <c r="H46">
         <v>3.1</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3">
         <v>10314</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>10315</v>
       </c>
       <c r="C47">
         <v>500</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="5">
         <v>40</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="5">
         <v>70</v>
       </c>
-      <c r="F47">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="G47">
+        <v>2.3</v>
+      </c>
+      <c r="H47">
         <v>3.35</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="5">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="6">
         <v>10315</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>10316</v>
       </c>
       <c r="C48">
         <v>800</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="5">
         <v>40</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="5">
         <v>70</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>3</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>22</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:10">
+      <c r="A49" s="8">
         <v>10316</v>
       </c>
-      <c r="B49" s="8">
-        <v>0</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
         <v>1500</v>
       </c>
-      <c r="D49" s="8">
+      <c r="E49" s="2">
         <v>100</v>
       </c>
-      <c r="E49" s="8">
+      <c r="F49" s="2">
         <v>500</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G49" s="2">
         <v>4</v>
       </c>
-      <c r="G49" s="8">
+      <c r="H49" s="2">
         <v>7</v>
       </c>
-      <c r="H49" s="8">
+      <c r="I49" s="2">
         <v>30</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>